--- a/tcf4_mouse/tables/SFARI_Genes_Table1.xlsx
+++ b/tcf4_mouse/tables/SFARI_Genes_Table1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BaDoiPhan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BaDoiPhan/Library/Caches/com.binarynights.ForkLift-3/85157C58-F972-415B-9095-6AC9F0573014/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -852,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="196" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="140" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -944,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -967,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -990,7 +990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="140" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="140" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="98" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="182" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="126" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="168" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="266" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="154" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="98" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="266" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="154" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="98" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="154" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="98" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="154" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="98" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
